--- a/attendance/src/main/resources/TestData/CRUD.xlsx
+++ b/attendance/src/main/resources/TestData/CRUD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t xml:space="preserve">TestCaseName</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">Verify that user is not able to update policy with existing name in group company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to delete policy from Parent Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to delete policy from Group Company</t>
   </si>
 </sst>
 </file>
@@ -163,10 +169,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:B6"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -249,6 +255,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
